--- a/before_duplicate.xlsx
+++ b/before_duplicate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K208"/>
+  <dimension ref="A1:K220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,24 +540,24 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>03/29/2023</t>
+          <t>12/16/2022</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['New York']</t>
+          <t>['clg']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -567,22 +567,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income ...more</t>
+          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Min...more</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income Housing Units to Affordable, High-Speed Internet As Part of President Biden’s Investing in America Agenda</t>
+          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Minority-Serving Colleges and Universities</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>https://home.treasury.gov/news/press-releases/jy1374</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-185-million-internet-all-grants-five</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -593,7 +593,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -605,12 +605,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12/16/2022</t>
+          <t>12/19/2022</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['clg']</t>
+          <t>['Michigan']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -620,22 +620,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Min...more</t>
+          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $18.5 Million in Internet for All Grants to Five Minority-Serving Colleges and Universities</t>
+          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-185-million-internet-all-grants-five</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-63-million-michigan-internet-all</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -646,7 +646,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['Michigan']</t>
+          <t>['Tribal']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -673,22 +673,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal...more</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.3 Million to Michigan in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal Lands</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-63-million-michigan-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-36-million-high-speed-internet-grants</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -699,7 +699,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -711,12 +711,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12/19/2022</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['Tribal']</t>
+          <t>['Illinois']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -726,22 +726,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal...more</t>
+          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $36 Million in High-Speed Internet Grants for Tribal Lands</t>
+          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-announces-more-36-million-high-speed-internet-grants</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-65-million-illinois-internet-all</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -752,7 +752,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>6</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['Illinois']</t>
+          <t>['Indiana']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -779,22 +779,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6.5 Million to Illinois in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-65-million-illinois-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-indiana-internet-all-planning</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -805,7 +805,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
         <v>7</v>
@@ -822,7 +822,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['Indiana']</t>
+          <t>['Oklahoma']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -832,12 +832,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning ...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Indiana in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -847,7 +847,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-indiana-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-oklahoma-internet-all</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -858,7 +858,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>8</v>
@@ -875,7 +875,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['Oklahoma']</t>
+          <t>['New Jersey']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -885,22 +885,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning...more</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.8 Million to Oklahoma in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-58-million-oklahoma-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-new-jersey-internet-all</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -911,7 +911,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>9</v>
@@ -928,7 +928,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['New Jersey']</t>
+          <t>['Nevada']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -938,12 +938,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning G...more</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to New Jersey in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-new-jersey-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-57-million-nevada-internet-all-planning</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -964,7 +964,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="n">
         <v>10</v>
@@ -981,7 +981,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Nevada']</t>
+          <t>['Wyoming']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning G...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Nevada in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-57-million-nevada-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-54-million-wyoming-internet-all-planning</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1017,7 +1017,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="n">
         <v>11</v>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Wyoming']</t>
+          <t>['New Hampshire']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning ...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Pla...more</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.4 Million to Wyoming in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-54-million-wyoming-internet-all-planning</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-55-million-new-hampshire-internet-all</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1070,7 +1070,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="n">
         <v>12</v>
@@ -1082,12 +1082,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>12/23/2022</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['New Hampshire']</t>
+          <t>['Massachusetts']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1097,12 +1097,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Pla...more</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Plann...more</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to New Hampshire in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-55-million-new-hampshire-internet-all</t>
+          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-massachusetts-internet-all</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1123,7 +1123,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
         <v>13</v>
@@ -1135,14 +1135,10 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12/23/2022</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['Massachusetts']</t>
-        </is>
-      </c>
+          <t>01/31/2023</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>03/30/2023</t>
@@ -1150,12 +1146,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Plann...more</t>
+          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Plea...more</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $6 Million to Massachusetts in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Pleasant Point</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1165,7 +1161,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2022/biden-harris-administration-awards-more-6-million-massachusetts-internet-all</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-500000-high-speed-internet-grant</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1176,24 +1172,24 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>USDA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>02/16/2023</t>
+          <t>03/23/2023</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['Illinois', 'Michigan', 'Minnesota', 'Mississippi']</t>
+          <t>['Minnesota', 'New Mexico']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1203,12 +1199,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
+          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1218,7 +1214,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1229,24 +1225,24 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>03/23/2023</t>
+          <t>12/20/2022</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['Minnesota', 'New Mexico']</t>
+          <t>['Texas']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1256,22 +1252,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Triba...more</t>
+          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Gr...more</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $25.7 Million in High-Speed Internet Grants to Tribal Lands in Minnesota and New Mexico</t>
+          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-more-257-million-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-81-million-texas-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1282,22 +1278,26 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>01/31/2023</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>12/20/2022</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['Vermont']</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>03/30/2023</t>
@@ -1305,22 +1305,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Plea...more</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning ...more</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $500,000 in High-Speed Internet Grant to Passamaquoddy at Pleasant Point</t>
+          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-announces-500000-high-speed-internet-grant</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-55-million-vermont-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1331,28 +1331,408 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12/20/2022</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['California']</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Gr...more</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Grants</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-9-million-california-internet-all-planning</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12/20/2022</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['Oregon']</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning G...more</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning Grants</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-oregon-internet-all-planning-grants</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12/22/2022</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['New Mexico']</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planni...more</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planning Grants</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-new-mexico-internet-all-planning</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12/22/2022</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['Kansas']</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Gran...more</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Grants</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-57-million-kansas-internet-all-planning-grants</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>01/30/2023</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['clg']</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minor...more</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minority-Serving Colleges and Universities</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-335-million-internet-all-grants-12-minority</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>02/27/2023</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['clg']</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minori...more</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minority-Serving Colleges and Universities</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-175-million-internet-all-grants-61-minority</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Broadband Money</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12/21/2022</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['California']</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>03/30/2023</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>California receives nearly $9M for BEAD funding and digital equity planning
+BEAD
+Broadband Funding
+C...more</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>California receives nearly $9M for BEAD funding and digital equity planning
+BEAD
+Broadband Funding
+California
+December 21, 2022
+California receives an additional $9 million for Broadband Equity, Access, and Deployment Program (BEAD) program grant funding and digital equity
+Broadband.money</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>https://broadband.money/blog-categories/bead</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Broadband Money</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>01/17/2023</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
         <is>
           <t>03/30/2023</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Introducing: Where's the Funding?
 Broadband Funding
@@ -1362,7 +1742,7 @@
 If you're ap...more</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Introducing: Where's the Funding?
 Broadband Funding
@@ -1373,394 +1753,14 @@
 Jase Wilson</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>rural broadband</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>https://broadband.money/blog-categories/broadband-funding</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B19" t="n">
-        <v>18</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Broadband Money</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>12/21/2022</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>['California']</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>California receives nearly $9M for BEAD funding and digital equity planning
-BEAD
-Broadband Funding
-C...more</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>California receives nearly $9M for BEAD funding and digital equity planning
-BEAD
-Broadband Funding
-California
-December 21, 2022
-California receives an additional $9 million for Broadband Equity, Access, and Deployment Program (BEAD) program grant funding and digital equity
-Broadband.money</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>https://broadband.money/blog-categories/bead</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>19</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>01/30/2023</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['clg']</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minor...more</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $33.5 Million in Internet for All Grants to 12 Minority-Serving Colleges and Universities</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-335-million-internet-all-grants-12-minority</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B21" t="n">
-        <v>20</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>12/22/2022</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['Kansas']</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Gran...more</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $5.7 Million to Kansas in ‘Internet for All’ Planning Grants</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-57-million-kansas-internet-all-planning-grants</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B22" t="n">
-        <v>21</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>02/27/2023</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['clg']</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minori...more</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Announces More Than $175 Million in Internet for All Grants to 61 Minority-Serving Colleges and Universities</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-175-million-internet-all-grants-61-minority</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B23" t="n">
-        <v>22</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>12/20/2022</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['Oregon']</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning G...more</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to Oregon in ‘Internet for All’ Planning Grants</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-oregon-internet-all-planning-grants</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B24" t="n">
-        <v>23</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>12/20/2022</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['California']</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Gr...more</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards Nearly $9 Million to California in ‘Internet for All’ Planning Grants</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>grant</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-nearly-9-million-california-internet-all-planning</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Relevant</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B25" t="n">
-        <v>24</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Internet for All</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>12/20/2022</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['Vermont']</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>03/30/2023</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning ...more</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Biden-Harris Administration Awards More Than $5.5 Million to Vermont in ‘Internet for All’ Planning Grants</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-55-million-vermont-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1771,24 +1771,24 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>12/20/2022</t>
+          <t>03/29/2023</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['Texas']</t>
+          <t>['New York']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1798,22 +1798,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Gr...more</t>
+          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income ...more</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $8.1 Million to Texas in ‘Internet for All’ Planning Grants</t>
+          <t>Treasury Department Announces New York’s Capital Projects Fund Award, Connecting 100,000 Low-Income Housing Units to Affordable, High-Speed Internet As Part of President Biden’s Investing in America Agenda</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-81-million-texas-internet-all-planning-grants</t>
+          <t>https://home.treasury.gov/news/press-releases/jy1374</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1824,24 +1824,24 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>USDA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12/22/2022</t>
+          <t>02/16/2023</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['New Mexico']</t>
+          <t>['Illinois', 'Michigan', 'Minnesota', 'Mississippi']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1851,22 +1851,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planni...more</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois,...more</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards More Than $5.7 Million to New Mexico in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Invests $63 Million in High-Speed Internet for People in Rural Illinois, Michigan, Minnesota and Mississippi</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-more-57-million-new-mexico-internet-all-planning</t>
+          <t>https://www.usda.gov/media/press-releases/2023/02/16/biden-harris-administration-invests-63-million-high-speed-internet</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2436,26 +2436,22 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NTIA</t>
+          <t>NCTA</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>05/16/2023</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['American Samoa']</t>
-        </is>
-      </c>
+          <t>05/18/2023</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
           <t>05/23/2023</t>
@@ -2463,22 +2459,22 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Plann...more</t>
+          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Planning Grants</t>
+          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-nearly-14-million-american-samoa-internet-all</t>
+          <t>https://www.ncta.com/whats-new/americas-expanding-cable-broadband-networks-central-us</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -2489,7 +2485,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" t="n">
         <v>39</v>
@@ -2506,7 +2502,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['Northern Mariana Islands']</t>
+          <t>['American Samoa']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2516,22 +2512,22 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All...more</t>
+          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Plann...more</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Awards Nearly $1.4 Million to American Samoa in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-14-million-northern-mariana-islands-internet</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-nearly-14-million-american-samoa-internet-all</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -2542,22 +2538,26 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" t="n">
         <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NCTA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05/18/2023</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
+          <t>05/16/2023</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>['Northern Mariana Islands']</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>05/23/2023</t>
@@ -2565,22 +2565,22 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All...more</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>America’s Expanding Cable Broadband Networks: Central U.S.</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to the Northern Mariana Islands in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>https://www.ncta.com/whats-new/americas-expanding-cable-broadband-networks-central-us</t>
+          <t>https://ntia.gov/press-release/2023/biden-harris-administration-awards-14-million-northern-mariana-islands-internet</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -2591,7 +2591,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42" t="n">
         <v>41</v>
@@ -2603,12 +2603,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05/17/2023</t>
+          <t>05/16/2023</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['Virgin Islands']</t>
+          <t>['Guam']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
+          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-150000-us-virgin-islands-digital-equity-planning-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-14-million-guam-internet-all-planning-grants</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -2644,7 +2644,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="n">
         <v>42</v>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['Tribal']</t>
+          <t>['Virgin Islands']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2671,22 +2671,22 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Awards $150,000 to U.S. Virgin Islands for Digital Equity Planning Grant</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-5-million-internet-all-grants-tribal-lands</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-150000-us-virgin-islands-digital-equity-planning-0</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -2697,7 +2697,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B44" t="n">
         <v>43</v>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>05/16/2023</t>
+          <t>05/17/2023</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['Guam']</t>
+          <t>['Tribal']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2724,22 +2724,22 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Awards $1.4 Million to Guam in ‘Internet for All’ Planning Grants</t>
+          <t>Biden-Harris Administration Announces Nearly $5 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-awards-14-million-guam-internet-all-planning-grants</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-5-million-internet-all-grants-tribal-lands</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3317,7 +3317,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B56" t="n">
         <v>55</v>
@@ -3329,12 +3329,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>06/26/2023</t>
+          <t>06/30/2023</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Georgia']</t>
+          <t>['Nevada']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructur...more</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-13-billion-georgia-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4167-million-nevada-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3370,7 +3370,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" t="n">
         <v>56</v>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['Texas']</t>
+          <t>['Georgia']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -3397,12 +3397,12 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.3 Billion to Georgia to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-33-billion-texas-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-13-billion-georgia-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3794,7 +3794,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="B65" t="n">
         <v>64</v>
@@ -3811,7 +3811,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['Delaware']</t>
+          <t>['New Mexico']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3821,12 +3821,12 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -3836,7 +3836,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-108-million-delaware-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6754-million-new-mexico-high-speed-internet</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -3847,7 +3847,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B66" t="n">
         <v>65</v>
@@ -3864,7 +3864,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['New Mexico']</t>
+          <t>['Missouri']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -3874,12 +3874,12 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $675.4 Million to New Mexico for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
@@ -3889,7 +3889,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6754-million-new-mexico-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-17-billion-missouri-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -4377,7 +4377,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="B76" t="n">
         <v>75</v>
@@ -4394,7 +4394,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['Missouri']</t>
+          <t>['Virginia']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -4404,12 +4404,12 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructur...more</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.7 Billion to Missouri to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-17-billion-missouri-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-14-billion-virginia-high-speed-internet</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4430,7 +4430,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B77" t="n">
         <v>76</v>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['Wisconsin']</t>
+          <t>['Delaware']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -4457,22 +4457,22 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructu...more</t>
+          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $108 Million to Delaware to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-wisconsin-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-108-million-delaware-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -4483,7 +4483,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" t="n">
         <v>77</v>
@@ -4500,7 +4500,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['Virginia']</t>
+          <t>['Texas']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -4510,12 +4510,12 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructur...more</t>
+          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.4 Billion to Virginia for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $3.3 Billion to Texas for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-14-billion-virginia-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-33-billion-texas-high-speed-internet</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
@@ -4536,7 +4536,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B79" t="n">
         <v>78</v>
@@ -4548,12 +4548,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>06/30/2023</t>
+          <t>06/26/2023</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['Puerto Rico']</t>
+          <t>['California']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -4563,12 +4563,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Inte...more</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
@@ -4578,7 +4578,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3346-million-puerto-rico-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-18-billion-california-deploy-high-speed</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -4589,7 +4589,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B80" t="n">
         <v>79</v>
@@ -4606,7 +4606,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['Nevada']</t>
+          <t>['Virgin Islands']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -4616,12 +4616,12 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructur...more</t>
+          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Inf...more</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $416.7 Million to Nevada for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4167-million-nevada-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-27-million-us-virgin-islands-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -4642,7 +4642,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B81" t="n">
         <v>80</v>
@@ -4659,7 +4659,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['Virgin Islands']</t>
+          <t>['Virginia', 'West Virginia']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -4669,12 +4669,12 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Inf...more</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $27 Million to U.S. Virgin Islands for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-27-million-us-virgin-islands-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-west-virginia-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
@@ -4695,7 +4695,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B82" t="n">
         <v>81</v>
@@ -4712,7 +4712,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['Virginia', 'West Virginia']</t>
+          <t>['Vermont']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -4722,12 +4722,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to West Virginia for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-west-virginia-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-229-million-vermont-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
@@ -4748,7 +4748,7 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B83" t="n">
         <v>82</v>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Vermont']</t>
+          <t>['Tennessee']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastruc...more</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $229 Million to Vermont for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-229-million-vermont-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-8133-million-tennessee-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -4801,7 +4801,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B84" t="n">
         <v>83</v>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['Tennessee']</t>
+          <t>['Rhode Island']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4828,12 +4828,12 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastruc...more</t>
+          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $813.3 Million to Tennessee for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-8133-million-tennessee-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1087-million-rhode-island-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -4854,7 +4854,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B85" t="n">
         <v>84</v>
@@ -4871,7 +4871,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['Rhode Island']</t>
+          <t>['Oklahoma']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -4881,12 +4881,12 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $108.7 Million to Rhode Island for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -4896,7 +4896,7 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1087-million-rhode-island-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7974-million-oklahoma-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
@@ -4907,7 +4907,7 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B86" t="n">
         <v>85</v>
@@ -4919,12 +4919,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>06/30/2023</t>
+          <t>06/26/2023</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['Oklahoma']</t>
+          <t>['Wisconsin']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -4934,22 +4934,22 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructu...more</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $797.4 Million to Oklahoma for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Wisconsin for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7974-million-oklahoma-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-wisconsin-high-speed-internet</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
@@ -4960,7 +4960,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B87" t="n">
         <v>86</v>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['North Carolina']</t>
+          <t>['New Jersey']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-15-billion-north-carolina-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2637-million-new-jersey-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -5013,7 +5013,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B88" t="n">
         <v>87</v>
@@ -5025,12 +5025,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>06/26/2023</t>
+          <t>06/30/2023</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['California']</t>
+          <t>['Nebraska']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -5040,12 +5040,12 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Inte...more</t>
+          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.8 Billion to California to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-18-billion-california-deploy-high-speed</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4053-million-nebraska-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -5066,7 +5066,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B89" t="n">
         <v>88</v>
@@ -5083,7 +5083,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['Nebraska']</t>
+          <t>['Northern Mariana Islands']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -5093,12 +5093,12 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Inter...more</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $405.3 Million to Nebraska for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4053-million-nebraska-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-808-million-northern-mariana-islands-high-speed-0</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
@@ -5119,7 +5119,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B90" t="n">
         <v>89</v>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['New Jersey']</t>
+          <t>['North Carolina']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $263.7 Million to New Jersey for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.5 Billion to North Carolina for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2637-million-new-jersey-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-15-billion-north-carolina-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -5172,7 +5172,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B91" t="n">
         <v>90</v>
@@ -5189,7 +5189,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['Wyoming']</t>
+          <t>['Washington']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -5199,12 +5199,12 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructu...more</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3479-million-wyoming-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-washington-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -5225,7 +5225,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B92" t="n">
         <v>91</v>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Washington']</t>
+          <t>['Wyoming']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -5252,12 +5252,12 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructu...more</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.2 Billion to Washington for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $347.9 Million to Wyoming for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-12-billion-washington-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3479-million-wyoming-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -5278,7 +5278,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B93" t="n">
         <v>92</v>
@@ -5295,7 +5295,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['Utah']</t>
+          <t>['Montana']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -5305,12 +5305,12 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3174-million-utah-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-629-million-montana-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
@@ -5331,7 +5331,7 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B94" t="n">
         <v>93</v>
@@ -5348,7 +5348,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['South Dakota']</t>
+          <t>['New Hampshire']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -5358,12 +5358,12 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrast...more</t>
+          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2072-million-south-dakota-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-197-million-new-hampshire-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -5384,7 +5384,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B95" t="n">
         <v>94</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['Pennsylvania']</t>
+          <t>['New York']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -5411,12 +5411,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-pennsylvania-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6646-million-new-york-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -5437,7 +5437,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B96" t="n">
         <v>95</v>
@@ -5454,7 +5454,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['Ohio']</t>
+          <t>['Puerto Rico']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -5464,12 +5464,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $334.6 Million to Puerto Rico for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7937-million-ohio-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3346-million-puerto-rico-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -5490,7 +5490,7 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B97" t="n">
         <v>96</v>
@@ -5507,7 +5507,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['New York']</t>
+          <t>['Pennsylvania']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -5517,12 +5517,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $664.6 Million to New York for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1.1 Billion to Pennsylvania for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-6646-million-new-york-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-11-billion-pennsylvania-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
@@ -5543,7 +5543,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B98" t="n">
         <v>97</v>
@@ -5560,7 +5560,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['New Hampshire']</t>
+          <t>['South Dakota']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrast...more</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $197 Million to New Hampshire for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $207.2 Million to South Dakota for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-197-million-new-hampshire-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-2072-million-south-dakota-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -5596,7 +5596,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B99" t="n">
         <v>98</v>
@@ -5613,7 +5613,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['Montana']</t>
+          <t>['Utah']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -5623,12 +5623,12 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $629 Million to Montana for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $317.4 Million to Utah for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -5638,7 +5638,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-629-million-montana-high-speed-internet-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-3174-million-utah-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -5649,7 +5649,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B100" t="n">
         <v>99</v>
@@ -5666,7 +5666,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['Northern Mariana Islands']</t>
+          <t>['Ohio']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Inter...more</t>
+          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $80.8 Million to Northern Mariana Islands for High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $793.7 Million to Ohio for High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
@@ -5691,7 +5691,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-808-million-northern-mariana-islands-high-speed-0</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-7937-million-ohio-high-speed-internet-0</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -5914,7 +5914,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B105" t="n">
         <v>104</v>
@@ -5931,7 +5931,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>['Iowa']</t>
+          <t>['Idaho']</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5941,12 +5941,12 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastru...more</t>
+          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastr...more</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
@@ -5956,7 +5956,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4153-million-iowa-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-5833-million-idaho-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -5967,7 +5967,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B106" t="n">
         <v>105</v>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>['Idaho']</t>
+          <t>['Connecticut']</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5994,12 +5994,12 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastr...more</t>
+          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet In...more</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $583.3 Million to Idaho to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-5833-million-idaho-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1442-million-connecticut-deploy-high-speed</t>
         </is>
       </c>
       <c r="K106" t="inlineStr">
@@ -6020,7 +6020,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B107" t="n">
         <v>106</v>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Connecticut']</t>
+          <t>['Alaska']</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -6047,12 +6047,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet In...more</t>
+          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastruct...more</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $144.2 Million to Connecticut to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1442-million-connecticut-deploy-high-speed</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1-billion-alaska-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -6073,7 +6073,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B108" t="n">
         <v>107</v>
@@ -6090,7 +6090,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>['Alaska']</t>
+          <t>['Florida']</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -6100,12 +6100,12 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastruct...more</t>
+          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Interne...more</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces $1 Billion to Alaska to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
@@ -6115,7 +6115,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-1-billion-alaska-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-11-billion-florida-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -6126,7 +6126,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B109" t="n">
         <v>108</v>
@@ -6143,7 +6143,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Florida']</t>
+          <t>['Iowa']</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -6153,12 +6153,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Interne...more</t>
+          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastru...more</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces More Than $1.1 Billion to Florida to Deploy High-Speed Internet Infrastructure</t>
+          <t>Biden-Harris Administration Announces $415.3 Million to Iowa to Deploy High-Speed Internet Infrastructure</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
@@ -6168,7 +6168,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-more-11-billion-florida-deploy-high-speed-internet</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-4153-million-iowa-deploy-high-speed-internet</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -6179,7 +6179,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" t="n">
         <v>109</v>
@@ -6191,7 +6191,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>07/27/2023</t>
+          <t>07/20/2023</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6206,12 +6206,12 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to...more</t>
+          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-1-billion-new-internet-all-funding</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-4-million-internet-all-grants-tribal-lands</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -6232,7 +6232,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111" t="n">
         <v>110</v>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>07/20/2023</t>
+          <t>07/27/2023</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6259,12 +6259,12 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to...more</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Announces Nearly $4 Million in Internet for All Grants to Tribal Lands</t>
+          <t>Biden-Harris Administration Announces Nearly $1 Billion in New Internet for All Funding Available to Tribal Lands</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-4-million-internet-all-grants-tribal-lands</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-announces-nearly-1-billion-new-internet-all-funding</t>
         </is>
       </c>
       <c r="K111" t="inlineStr">
@@ -6889,7 +6889,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="B124" t="n">
         <v>123</v>
@@ -7040,7 +7040,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="B127" t="n">
         <v>126</v>
@@ -7236,26 +7236,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B131" t="n">
         <v>130</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>Broadband Money</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>12/15/2023</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>['Louisiana']</t>
-        </is>
-      </c>
+          <t>12/14/2023</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
           <t>12/18/2023</t>
@@ -7263,22 +7259,22 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
+          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
+          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
         </is>
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-initial-proposal</t>
+          <t>https://broadband.money/blog/the-biggest-broadband-news-of-2023-hint-its-all-about-bead</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -7289,22 +7285,26 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" t="n">
         <v>131</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Broadband Money</t>
+          <t>Internet for All</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>12/14/2023</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr"/>
+          <t>12/15/2023</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>['Louisiana']</t>
+        </is>
+      </c>
       <c r="F132" t="inlineStr">
         <is>
           <t>12/18/2023</t>
@@ -7312,22 +7312,22 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>The biggest broadband news of 2023? Hint: It's all about BEAD</t>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>https://broadband.money/blog/the-biggest-broadband-news-of-2023-hint-its-all-about-bead</t>
+          <t>https://www.internet4all.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
@@ -7338,7 +7338,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>278</v>
+        <v>216</v>
       </c>
       <c r="B133" t="n">
         <v>132</v>
@@ -7542,7 +7542,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B137" t="n">
         <v>136</v>
@@ -7742,7 +7742,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" t="n">
         <v>140</v>
@@ -7754,12 +7754,12 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>['Nevada']</t>
+          <t>['Vermont']</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -7769,22 +7769,22 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Nevada’s Digital Equity Plan Accepted</t>
+          <t>Vermont’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Nevada’s Digital Equity Plan Accepted</t>
+          <t>Vermont’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/nevadas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/vermonts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -7795,7 +7795,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B142" t="n">
         <v>141</v>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>['Vermont']</t>
+          <t>['Missouri']</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7822,22 +7822,22 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Vermont’s Digital Equity Plan Accepted</t>
+          <t>Missouri's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Vermont’s Digital Equity Plan Accepted</t>
+          <t>Missouri's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/vermonts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/missouris-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K142" t="inlineStr">
@@ -7848,7 +7848,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" t="n">
         <v>142</v>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>['Missouri']</t>
+          <t>['Ohio']</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -7875,12 +7875,12 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Missouri's Digital Equity Plan Accepted</t>
+          <t>Ohio’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Missouri's Digital Equity Plan Accepted</t>
+          <t>Ohio’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -7890,7 +7890,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/missouris-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/ohios-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -7901,7 +7901,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B144" t="n">
         <v>143</v>
@@ -7918,7 +7918,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>['Ohio']</t>
+          <t>['California']</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -7928,12 +7928,12 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Ohio’s Digital Equity Plan Accepted</t>
+          <t>California's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Ohio’s Digital Equity Plan Accepted</t>
+          <t>California's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/ohios-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/californias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -7954,7 +7954,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B145" t="n">
         <v>144</v>
@@ -7966,12 +7966,12 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>['Texas']</t>
+          <t>['Montana']</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -7981,22 +7981,22 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Texas’ Digital Equity Plan Accepted</t>
+          <t>Montana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Texas’ Digital Equity Plan Accepted</t>
+          <t>Montana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/texas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/montanas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K145" t="inlineStr">
@@ -8007,7 +8007,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B146" t="n">
         <v>145</v>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>['District of Columbia']</t>
+          <t>['Texas']</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -8034,22 +8034,22 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>District of Columbia’s Digital Equity Plan Accepted</t>
+          <t>Texas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>District of Columbia’s Digital Equity Plan Accepted</t>
+          <t>Texas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/district-columbias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/texas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K146" t="inlineStr">
@@ -8113,7 +8113,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B148" t="n">
         <v>147</v>
@@ -8125,12 +8125,12 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>['Montana']</t>
+          <t>['Nevada']</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -8140,22 +8140,22 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Montana’s Digital Equity Plan Accepted</t>
+          <t>Nevada’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Montana’s Digital Equity Plan Accepted</t>
+          <t>Nevada’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/montanas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/nevadas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K148" t="inlineStr">
@@ -8166,7 +8166,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B149" t="n">
         <v>148</v>
@@ -8183,7 +8183,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>['California']</t>
+          <t>['Nebraska']</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -8193,22 +8193,22 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>California's Digital Equity Plan Accepted</t>
+          <t>Nebraska's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>California's Digital Equity Plan Accepted</t>
+          <t>Nebraska's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/californias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/nebraskas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -8219,7 +8219,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B150" t="n">
         <v>149</v>
@@ -8231,12 +8231,12 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>['Washington']</t>
+          <t>['District of Columbia']</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -8246,12 +8246,12 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Washington’s Digital Equity Plan Accepted</t>
+          <t>District of Columbia’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Washington’s Digital Equity Plan Accepted</t>
+          <t>District of Columbia’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I150" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/washingtons-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/district-columbias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -8272,7 +8272,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="B151" t="n">
         <v>150</v>
@@ -8284,12 +8284,12 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>['Nebraska']</t>
+          <t>['Minnesota']</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -8299,22 +8299,22 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Nebraska's Digital Equity Plan Accepted</t>
+          <t>Minnesota's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Nebraska's Digital Equity Plan Accepted</t>
+          <t>Minnesota's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/nebraskas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/minnesotas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -8325,7 +8325,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B152" t="n">
         <v>151</v>
@@ -8337,12 +8337,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>04/02/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>['Oklahoma']</t>
+          <t>['Georgia']</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8352,12 +8352,12 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Oklahoma’s Digital Equity Plan Accepted</t>
+          <t>Georgia's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Oklahoma’s Digital Equity Plan Accepted</t>
+          <t>Georgia's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/oklahomas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/georgias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K152" t="inlineStr">
@@ -8378,7 +8378,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B153" t="n">
         <v>152</v>
@@ -8390,12 +8390,12 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>04/02/2024</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>['Arkansas', 'Kansas']</t>
+          <t>['Oklahoma']</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8405,12 +8405,12 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Arkansas’ Digital Equity Plan Accepted</t>
+          <t>Oklahoma’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Arkansas’ Digital Equity Plan Accepted</t>
+          <t>Oklahoma’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
@@ -8420,7 +8420,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/arkansas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/oklahomas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -8431,7 +8431,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B154" t="n">
         <v>153</v>
@@ -8443,12 +8443,12 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>['Pennsylvania']</t>
+          <t>['Arkansas', 'Kansas']</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8458,22 +8458,22 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
+          <t>Arkansas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
+          <t>Arkansas’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/pennsylvanias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/arkansas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -8484,7 +8484,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B155" t="n">
         <v>154</v>
@@ -8496,12 +8496,12 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>['Connecticut']</t>
+          <t>['Pennsylvania']</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -8511,22 +8511,22 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Connecticut’s Digital Equity Plan Accepted</t>
+          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Connecticut’s Digital Equity Plan Accepted</t>
+          <t>Pennsylvania’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/connecticuts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/pennsylvanias-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K155" t="inlineStr">
@@ -8537,7 +8537,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B156" t="n">
         <v>155</v>
@@ -8554,7 +8554,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>['Tennessee']</t>
+          <t>['Connecticut']</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -8564,12 +8564,12 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Tennessee’s Digital Equity Plan Accepted</t>
+          <t>Connecticut’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Tennessee’s Digital Equity Plan Accepted</t>
+          <t>Connecticut’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/tennessees-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/connecticuts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -8590,7 +8590,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B157" t="n">
         <v>156</v>
@@ -8602,12 +8602,12 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>03/26/2024</t>
+          <t>03/28/2024</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>['Massachusetts']</t>
+          <t>['Tennessee']</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Massachusetts’ Digital Equity Plan Accepted</t>
+          <t>Tennessee’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Massachusetts’ Digital Equity Plan Accepted</t>
+          <t>Tennessee’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
@@ -8632,7 +8632,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/massachusetts-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/tennessees-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -8643,7 +8643,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B158" t="n">
         <v>157</v>
@@ -8660,7 +8660,7 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>['North Carolina']</t>
+          <t>['Massachusetts']</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -8670,12 +8670,12 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>North Carolina’s Digital Equity Plan Accepted</t>
+          <t>Massachusetts’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>North Carolina’s Digital Equity Plan Accepted</t>
+          <t>Massachusetts’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/north-carolinas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/massachusetts-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -8696,7 +8696,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B159" t="n">
         <v>158</v>
@@ -8713,7 +8713,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>['Hawaii']</t>
+          <t>['North Carolina']</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8723,22 +8723,22 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Hawaii’s Digital Equity Plan Accepted</t>
+          <t>North Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hawaii’s Digital Equity Plan Accepted</t>
+          <t>North Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/hawaiis-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/north-carolinas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -8749,7 +8749,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B160" t="n">
         <v>159</v>
@@ -8766,7 +8766,7 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>['Florida']</t>
+          <t>['Hawaii']</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -8776,12 +8776,12 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Florida’s Digital Equity Plan Accepted</t>
+          <t>Hawaii’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Florida’s Digital Equity Plan Accepted</t>
+          <t>Hawaii’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
@@ -8791,7 +8791,7 @@
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/floridas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/hawaiis-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K160" t="inlineStr">
@@ -8802,7 +8802,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B161" t="n">
         <v>160</v>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>['New Jersey']</t>
+          <t>['Florida']</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -8829,12 +8829,12 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>New Jersey’s Digital Equity Plan Accepted</t>
+          <t>Florida’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>New Jersey’s Digital Equity Plan Accepted</t>
+          <t>Florida’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-jerseys-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/floridas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -8855,7 +8855,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B162" t="n">
         <v>161</v>
@@ -8872,7 +8872,7 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>['Rhode Island']</t>
+          <t>['New Jersey']</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -8882,22 +8882,22 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Rhode Island’s Digital Equity Plan Accepted</t>
+          <t>New Jersey’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Rhode Island’s Digital Equity Plan Accepted</t>
+          <t>New Jersey’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/rhode-islands-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-jerseys-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K162" t="inlineStr">
@@ -8908,7 +8908,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B163" t="n">
         <v>162</v>
@@ -8920,12 +8920,12 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>['Georgia']</t>
+          <t>['Rhode Island']</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -8935,12 +8935,12 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Georgia's Digital Equity Plan Accepted</t>
+          <t>Rhode Island’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Georgia's Digital Equity Plan Accepted</t>
+          <t>Rhode Island’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/georgias-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/rhode-islands-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -8961,7 +8961,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B164" t="n">
         <v>163</v>
@@ -8978,7 +8978,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>['Minnesota']</t>
+          <t>['Oregon']</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -8988,12 +8988,12 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Minnesota's Digital Equity Plan Accepted</t>
+          <t>Oregon's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Minnesota's Digital Equity Plan Accepted</t>
+          <t>Oregon's Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/minnesotas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/oregons-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K164" t="inlineStr">
@@ -9014,7 +9014,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="B165" t="n">
         <v>164</v>
@@ -9026,12 +9026,12 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>03/28/2024</t>
+          <t>03/26/2024</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>['Oregon']</t>
+          <t>['Washington']</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -9041,22 +9041,22 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Oregon's Digital Equity Plan Accepted</t>
+          <t>Washington’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Oregon's Digital Equity Plan Accepted</t>
+          <t>Washington’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/oregons-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/washingtons-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
@@ -9067,7 +9067,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B166" t="n">
         <v>165</v>
@@ -9084,7 +9084,7 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>['Kentucky']</t>
+          <t>['New York']</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -9094,22 +9094,22 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Kentucky’s Digital Equity Plan Accepted</t>
+          <t>New York’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Kentucky’s Digital Equity Plan Accepted</t>
+          <t>New York’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/kentuckys-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-yorks-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -9173,7 +9173,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B168" t="n">
         <v>167</v>
@@ -9190,7 +9190,7 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>['New York']</t>
+          <t>['Indiana']</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -9200,22 +9200,22 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>New York’s Digital Equity Plan Accepted</t>
+          <t>Indiana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>New York’s Digital Equity Plan Accepted</t>
+          <t>Indiana’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-yorks-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/indianas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -9226,7 +9226,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B169" t="n">
         <v>168</v>
@@ -9243,7 +9243,7 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>['New Hampshire']</t>
+          <t>['South Carolina']</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -9253,12 +9253,12 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>New Hampshire’s Digital Equity Plan Accepted</t>
+          <t>South Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>New Hampshire’s Digital Equity Plan Accepted</t>
+          <t>South Carolina’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
@@ -9268,7 +9268,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/new-hampshires-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/south-carolinas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -9279,7 +9279,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B170" t="n">
         <v>169</v>
@@ -9296,7 +9296,7 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>['South Carolina']</t>
+          <t>['Kentucky']</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -9306,22 +9306,22 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>South Carolina’s Digital Equity Plan Accepted</t>
+          <t>Kentucky’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>South Carolina’s Digital Equity Plan Accepted</t>
+          <t>Kentucky’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/south-carolinas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/kentuckys-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K170" t="inlineStr">
@@ -9332,7 +9332,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B171" t="n">
         <v>170</v>
@@ -9349,7 +9349,7 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>['Indiana']</t>
+          <t>['New Hampshire']</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -9359,22 +9359,22 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Indiana’s Digital Equity Plan Accepted</t>
+          <t>New Hampshire’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Indiana’s Digital Equity Plan Accepted</t>
+          <t>New Hampshire’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/indianas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/new-hampshires-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -9438,7 +9438,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B173" t="n">
         <v>172</v>
@@ -9455,7 +9455,7 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>['Iowa']</t>
+          <t>['Mississippi']</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -9465,22 +9465,22 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Iowa’s Digital Equity Plan Accepted</t>
+          <t>Mississippi’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Iowa’s Digital Equity Plan Accepted</t>
+          <t>Mississippi’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>Digital Equity Plan</t>
+          <t>Digital Equity</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/iowas-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/mississippis-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -9491,7 +9491,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B174" t="n">
         <v>173</v>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>['Illinois']</t>
+          <t>['Iowa']</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -9518,12 +9518,12 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Illinois’ Digital Equity Plan Accepted</t>
+          <t>Iowa’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Illinois’ Digital Equity Plan Accepted</t>
+          <t>Iowa’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/illinois-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/iowas-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -9544,7 +9544,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B175" t="n">
         <v>174</v>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>['Mississippi']</t>
+          <t>['Colorado']</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -9571,22 +9571,22 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Mississippi’s Digital Equity Plan Accepted</t>
+          <t>Colorado’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mississippi’s Digital Equity Plan Accepted</t>
+          <t>Colorado’s Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Digital Equity</t>
+          <t>Digital Equity Plan</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/mississippis-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/colorados-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -9597,7 +9597,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B176" t="n">
         <v>175</v>
@@ -9614,7 +9614,7 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>['Colorado']</t>
+          <t>['Illinois']</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -9624,12 +9624,12 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Colorado’s Digital Equity Plan Accepted</t>
+          <t>Illinois’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Colorado’s Digital Equity Plan Accepted</t>
+          <t>Illinois’ Digital Equity Plan Accepted</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>https://www.internet4all.gov/news-media/colorados-digital-equity-plan-accepted</t>
+          <t>https://www.internet4all.gov/news-media/illinois-digital-equity-plan-accepted</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -10628,42 +10628,38 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>07/26/2024</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>['New Mexico', 'Virginia']</t>
-        </is>
-      </c>
+          <t>08/07/2024</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>The 2023 Federal Broadband Funding Report</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
+          <t>The 2023 Federal Broadband Funding Report</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>broadband</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-new-mexico-and-virginias-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/2023-federal-broadband-funding-report</t>
         </is>
       </c>
       <c r="K196" t="inlineStr">
@@ -10674,49 +10670,45 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="B197" t="n">
         <v>196</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>07/25/2024</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>['Massachusetts']</t>
-        </is>
-      </c>
+          <t>07/24/2024</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Massachusetts' “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Massachusetts' “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>internet</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-massachusetts-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-opens-applications-1-billion-digital-inclusion-grant-program</t>
         </is>
       </c>
       <c r="K197" t="inlineStr">
@@ -10727,45 +10719,49 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B198" t="n">
         <v>197</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>07/24/2024</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
+          <t>07/25/2024</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>['Massachusetts']</t>
+        </is>
+      </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
+          <t>Biden-Harris Administration Approves Massachusetts' “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Opens Applications for $1 Billion Digital Inclusion Grant Program</t>
+          <t>Biden-Harris Administration Approves Massachusetts' “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>grant</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-opens-applications-1-billion-digital-inclusion-grant-0</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-massachusetts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -10776,7 +10772,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B199" t="n">
         <v>198</v>
@@ -10788,27 +10784,27 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>07/22/2024</t>
+          <t>07/26/2024</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>['Utah', 'Virgin Islands', 'Northern Mariana Islands']</t>
+          <t>['New Mexico', 'Virginia']</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+          <t>Biden-Harris Administration Approves New Mexico and Virginia’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I199" t="inlineStr">
@@ -10818,7 +10814,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-new-mexico-and-virginia-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -10829,7 +10825,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="B200" t="n">
         <v>199</v>
@@ -10841,27 +10837,27 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>07/18/2024</t>
+          <t>08/01/2024</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>['Connecticut']</t>
+          <t>['Montana', 'Oklahoma', 'Vermont']</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -10871,7 +10867,7 @@
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-connecticut-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K200" t="inlineStr">
@@ -10882,7 +10878,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="B201" t="n">
         <v>200</v>
@@ -10894,23 +10890,27 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>07/18/2024</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
+          <t>08/02/2024</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>['Missouri', 'Tennessee']</t>
+        </is>
+      </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
+          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -10920,7 +10920,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/ntia-supports-fcc-internet-routing-security-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-missouri-and-tennessee-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -10931,7 +10931,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>261</v>
+        <v>227</v>
       </c>
       <c r="B202" t="n">
         <v>201</v>
@@ -10943,27 +10943,27 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>07/17/2024</t>
+          <t>08/05/2024</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>['Rhode Island']</t>
+          <t>['Arizona']</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Arizona's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Arizona's “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="J202" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-rhode-island-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-arizonas-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K202" t="inlineStr">
@@ -10984,7 +10984,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="B203" t="n">
         <v>202</v>
@@ -10996,27 +10996,27 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>07/16/2024</t>
+          <t>08/06/2024</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>['Hawaii']</t>
+          <t>['Wisconsin']</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Wisconsin’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Wisconsin’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -11026,7 +11026,7 @@
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-hawaii-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-wisconsin-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K203" t="inlineStr">
@@ -11037,39 +11037,39 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>212</v>
+        <v>256</v>
       </c>
       <c r="B204" t="n">
         <v>203</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>08/02/2024</t>
+          <t>07/18/2024</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>['Missouri', 'Tennessee']</t>
+          <t>['Connecticut']</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Missouri and Tennessee’s “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves Connecticut’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-missouri-and-tennessees-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-connecticut-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -11090,39 +11090,39 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="B205" t="n">
         <v>204</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>08/01/2024</t>
+          <t>08/13/2024</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>['Montana', 'Oklahoma', 'Vermont']</t>
+          <t>['New York']</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>08/05/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Pro...more</t>
+          <t>Biden-Harris Administration Approves New York’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Montana, Oklahoma, and Vermont's “Internet for All” Initial Proposal</t>
+          <t>Biden-Harris Administration Approves New York’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
@@ -11132,7 +11132,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-montana-oklahoma-and-vermonts-internet-all-initial</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-new-york-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -11143,7 +11143,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>209</v>
+        <v>257</v>
       </c>
       <c r="B206" t="n">
         <v>205</v>
@@ -11155,27 +11155,23 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>07/08/2024</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>['Indiana']</t>
-        </is>
-      </c>
+          <t>07/18/2024</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>09/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+          <t>NTIA Supports FCC Internet Routing Security Proposal</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -11185,114 +11181,738 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-indiana-s-internet-all-initial-proposal</t>
+          <t>https://www.ntia.gov/press-release/2024/ntia-supports-fcc-internet-routing-security-proposal</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>Relevant</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="B207" t="n">
         <v>206</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>NCTA</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>07/10/2024</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
+          <t>07/17/2024</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>['Rhode Island']</t>
+        </is>
+      </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>11/07/2024</t>
+          <t>08/20/2024</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+          <t>Biden-Harris Administration Approves Rhode Island’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>broadband</t>
+          <t>internet</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>https://www.ncta.com/whats-new/americas-expanding-broadband-networks-continue-grow-the-northeast-pt-2</t>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-rhode-island-s-internet-all-initial-proposal</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>Relevant</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>210</v>
+        <v>259</v>
       </c>
       <c r="B208" t="n">
         <v>207</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Internet for All</t>
+          <t>NTIA</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
+          <t>07/16/2024</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>['Hawaii']</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Hawaii’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-hawaii-s-internet-all-initial-proposal</t>
+        </is>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B209" t="n">
+        <v>208</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>07/22/2024</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>['Utah', 'Virgin Islands', 'Northern Mariana Islands']</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Vi...more</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Utah, Commonwealth of Northern Mariana Islands, and the U.S. Virgin Islands’ “Internet for All” Initial Proposals</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-utah-commonwealth-northern-mariana-islands-and-us-virgin</t>
+        </is>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B210" t="n">
+        <v>209</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>08/08/2024</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>['Wyoming']</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>08/20/2024</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Wyoming’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Wyoming’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-wyoming-s-internet-all-initial-proposal</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>210</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NTIA</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>07/08/2024</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>['Indiana']</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>09/07/2024</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Indiana’s “Internet for All” Initial Proposal</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>https://www.ntia.gov/press-release/2024/biden-harris-administration-approves-indiana-s-internet-all-initial-proposal</t>
+        </is>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>211</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
           <t>07/10/2024</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>11/07/2024</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>America’s Expanding Broadband Networks Continue to Grow: The Northeast Pt. 2</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/americas-expanding-broadband-networks-continue-grow-the-northeast-pt-2</t>
+        </is>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B213" t="n">
+        <v>212</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>07/10/2024</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>['Maryland']</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>11/07/2024</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>Biden-Harris Administration Approves Maryland’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>Biden-Harris Administration Approves Maryland’s “Internet for All” Initial Proposal</t>
         </is>
       </c>
-      <c r="I208" t="inlineStr">
-        <is>
-          <t>internet</t>
-        </is>
-      </c>
-      <c r="J208" t="inlineStr">
+      <c r="I213" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J213" t="inlineStr">
         <is>
           <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-marylands-internet-all-initial-proposal</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>Relevant</t>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>Relevant</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B214" t="n">
+        <v>213</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>DOC</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>01/14/2025</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>01/20/2025</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Additional $210 Million Tech Hub Grants</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Awards Additional $210 Million Tech Hub Grants</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>https://www.commerce.gov/news/press-releases/2025/01/biden-harris-administration-awards-additional-210-million-tech-hub</t>
+        </is>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B215" t="n">
+        <v>214</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>01/21/2025</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Broadband Stats: A Smart Spectrum Strategy</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Broadband Stats: A Smart Spectrum Strategy</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/broadband-stats-a-smart-spectrum-strategy</t>
+        </is>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B216" t="n">
+        <v>215</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>01/14/2025</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>['Delaware']</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Delaware's “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Delaware's “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-delawares-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B217" t="n">
+        <v>216</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>01/16/2025</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>['Tribal']</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Recommends for Award More Than $162 Million to Expand Internet Use on Tr...more</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Recommends for Award More Than $162 Million to Expand Internet Use on Tribal Lands</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-recommends-award-more-162-million-expand-internet-use-tribal</t>
+        </is>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B218" t="n">
+        <v>217</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>01/17/2025</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>['Nevada']</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Nevada’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Nevada’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-nevadas-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B219" t="n">
+        <v>218</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Internet for All</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>01/13/2025</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>['Louisiana']</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Biden-Harris Administration Approves Louisiana’s “Internet for All” Final Proposal</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>internet</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>https://www.internetforall.gov/news-media/biden-harris-administration-approves-louisianas-internet-all-final-proposal</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B220" t="n">
+        <v>219</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>NCTA</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>01/16/2025</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>01/24/2025</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>WATCH: A Year of Impact for Broadband and TV</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>WATCH: A Year of Impact for Broadband and TV</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>broadband</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>https://www.ncta.com/whats-new/watch-a-year-of-impact-for-broadband-and-tv</t>
+        </is>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
